--- a/doc/ue_memstack.xlsx
+++ b/doc/ue_memstack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B9882-9CC5-46AE-9663-82B964E656A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355CB8B9-D5A5-46FD-80BE-9ED738EF78BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,13 +27,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>UE为了加速内存分配，使用了MemStack；配合使用ThreadSingleton，使用线程局部存储，各个线程自己管理内存，不存在竞争</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>例如动画模块大量在使用MemStack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return new(FMemStack::Get()) FDistortionMeshProcessor(Scene, InViewIfDynamicMeshCommand, DistortionPassState, InDrawListContext);</t>
+  </si>
+  <si>
+    <t>重载了new/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Friends.</t>
+  </si>
+  <si>
+    <t>friend class FMemMark;</t>
+  </si>
+  <si>
+    <t>friend void* operator new(size_t Size, FMemStackBase&amp; Mem, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new(size_t Size, FMemStackBase&amp; Mem, EMemZeroed Tag, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new(size_t Size, FMemStackBase&amp; Mem, EMemOned Tag, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new[](size_t Size, FMemStackBase&amp; Mem, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new[](size_t Size, FMemStackBase&amp; Mem, EMemZeroed Tag, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new[](size_t Size, FMemStackBase&amp; Mem, EMemOned Tag, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>原理就是每个线程自己一个，内部每次分配一大块，每次从这个里面取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,42 +408,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:C5"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED23DB90-63EA-40C4-B868-11C7C3BA440E}">
+  <dimension ref="B4:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED23DB90-63EA-40C4-B868-11C7C3BA440E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/ue_memstack.xlsx
+++ b/doc/ue_memstack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355CB8B9-D5A5-46FD-80BE-9ED738EF78BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095BAE8-2145-49BD-8817-D88FE42C8B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>UE为了加速内存分配，使用了MemStack；配合使用ThreadSingleton，使用线程局部存储，各个线程自己管理内存，不存在竞争</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <t>return new(FMemStack::Get()) FDistortionMeshProcessor(Scene, InViewIfDynamicMeshCommand, DistortionPassState, InDrawListContext);</t>
   </si>
   <si>
-    <t>重载了new/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>// Friends.</t>
   </si>
   <si>
@@ -73,6 +69,82 @@
   </si>
   <si>
     <t>原理就是每个线程自己一个，内部每次分配一大块，每次从这个里面取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神奇用法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用线程局部存储，可以每一个线程一个专属的memstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于GameThread和RenderThread来说，有几种骚操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次TICK开始前获取一下当前线程的MemStack，构造一个栈上的FMemMark对象，之后这个线程大量的分配都是在线程局部存储的MemStack上（并且不需要手动free），会在FMemMark析构里面全部释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部个别模块或函数中，也可以构造一个FMemMark对象，确保在该模块或函数结束时，释放掉这个生命周期内在MemStack分配的内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样，有些时候会直接重新构造一个MemStack，在对象析构时销毁内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于Unnamed Thread，其没有在每个Thread-Tick开始构造类似FMemMark对象，所以理论上需要自己管理内存，如果内部使用了MemStack，没有手动释放之类就会泄露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::DrawWindow_RenderThread(FRHICommandListImmediate&amp; RHICmdList, FViewportInfo&amp; ViewportInfo, FSlateWindowElementList&amp; WindowElementList, const struct FSlateDrawWindowCommandParams&amp; DrawCommandParams)</t>
+  </si>
+  <si>
+    <t>void UAnimInstance::ParallelEvaluateAnimation(bool bForceRefPose, const USkeletalMesh* InSkeletalMesh, FParallelEvaluationData&amp; OutEvaluationData)</t>
+  </si>
+  <si>
+    <t>FMemMark Mark(FMemStack::Get());</t>
+  </si>
+  <si>
+    <t>class RHI_API FRHICommandListBase : public FNoncopyable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMemStackBase MemManager; </t>
+  </si>
+  <si>
+    <t>FMemMark MemMark(FMemStack::Get());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FEngineLoop::Tick()</t>
+  </si>
+  <si>
+    <t>// make sure to catch any FMemStack uses outside of UWorld::Tick</t>
+  </si>
+  <si>
+    <t>FMemMark MemStackMark(FMemStack::Get());</t>
+  </si>
+  <si>
+    <t>RenderThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载了new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，没有重载delete，因为这类对象不允许delete，要么不需要管理释放通过FMemMark对象自动释放，要么手动掉FreeChunk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +176,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,9 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,30 +491,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13">
+        <v>2.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="D30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -443,10 +679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED23DB90-63EA-40C4-B868-11C7C3BA440E}">
-  <dimension ref="B4:C16"/>
+  <dimension ref="B4:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,47 +699,53 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>5</v>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_memstack.xlsx
+++ b/doc/ue_memstack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095BAE8-2145-49BD-8817-D88FE42C8B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED45A3-078A-4692-88CD-E4124B7FD28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>UE为了加速内存分配，使用了MemStack；配合使用ThreadSingleton，使用线程局部存储，各个线程自己管理内存，不存在竞争</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,28 @@
   </si>
   <si>
     <t>！！！注意，没有重载delete，因为这类对象不允许delete，要么不需要管理释放通过FMemMark对象自动释放，要么手动掉FreeChunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemManager.Alloc(AllocSize, Alignment);</t>
+  </si>
+  <si>
+    <t>MemManager.Flush();</t>
+  </si>
+  <si>
+    <t>new的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FChildOrderInvalidationData, TMemStackAllocator&lt;&gt;&gt; RebuildWigetData;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过TMemStackAllocator分配的用法，这部分无需手动回收，需要借助FMemMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动申请和手动释放(或析构中释放）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED23DB90-63EA-40C4-B868-11C7C3BA440E}">
-  <dimension ref="B4:C17"/>
+  <dimension ref="B4:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,58 +715,97 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>32</v>
+      <c r="C8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>7</v>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>8</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
     </row>

--- a/doc/ue_memstack.xlsx
+++ b/doc/ue_memstack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED45A3-078A-4692-88CD-E4124B7FD28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2E903-2DA4-4EC0-BA0C-5720A57B5F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>UE为了加速内存分配，使用了MemStack；配合使用ThreadSingleton，使用线程局部存储，各个线程自己管理内存，不存在竞争</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,9 @@
   <si>
     <t>手动申请和手动释放(或析构中释放）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMemStackBase MemManager</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED23DB90-63EA-40C4-B868-11C7C3BA440E}">
-  <dimension ref="B4:C22"/>
+  <dimension ref="B4:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,63 +752,69 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>

--- a/doc/ue_memstack.xlsx
+++ b/doc/ue_memstack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2E903-2DA4-4EC0-BA0C-5720A57B5F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D651565-4CF0-4295-A957-DA42D0D3A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -27,150 +27,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
-  <si>
-    <t>UE为了加速内存分配，使用了MemStack；配合使用ThreadSingleton，使用线程局部存储，各个线程自己管理内存，不存在竞争</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如动画模块大量在使用MemStack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>用法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>// Friends.</t>
+  </si>
+  <si>
+    <t>friend class FMemMark;</t>
+  </si>
+  <si>
+    <t>friend void* operator new(size_t Size, FMemStackBase&amp; Mem, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new(size_t Size, FMemStackBase&amp; Mem, EMemZeroed Tag, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new(size_t Size, FMemStackBase&amp; Mem, EMemOned Tag, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new[](size_t Size, FMemStackBase&amp; Mem, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new[](size_t Size, FMemStackBase&amp; Mem, EMemZeroed Tag, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>friend void* operator new[](size_t Size, FMemStackBase&amp; Mem, EMemOned Tag, int32 Count, int32 Align);</t>
+  </si>
+  <si>
+    <t>神奇用法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用线程局部存储，可以每一个线程一个专属的memstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于GameThread和RenderThread来说，有几种骚操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次TICK开始前获取一下当前线程的MemStack，构造一个栈上的FMemMark对象，之后这个线程大量的分配都是在线程局部存储的MemStack上（并且不需要手动free），会在FMemMark析构里面全部释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部个别模块或函数中，也可以构造一个FMemMark对象，确保在该模块或函数结束时，释放掉这个生命周期内在MemStack分配的内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样，有些时候会直接重新构造一个MemStack，在对象析构时销毁内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于Unnamed Thread，其没有在每个Thread-Tick开始构造类似FMemMark对象，所以理论上需要自己管理内存，如果内部使用了MemStack，没有手动释放之类就会泄露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::DrawWindow_RenderThread(FRHICommandListImmediate&amp; RHICmdList, FViewportInfo&amp; ViewportInfo, FSlateWindowElementList&amp; WindowElementList, const struct FSlateDrawWindowCommandParams&amp; DrawCommandParams)</t>
+  </si>
+  <si>
+    <t>void UAnimInstance::ParallelEvaluateAnimation(bool bForceRefPose, const USkeletalMesh* InSkeletalMesh, FParallelEvaluationData&amp; OutEvaluationData)</t>
+  </si>
+  <si>
+    <t>FMemMark Mark(FMemStack::Get());</t>
+  </si>
+  <si>
+    <t>class RHI_API FRHICommandListBase : public FNoncopyable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMemStackBase MemManager; </t>
+  </si>
+  <si>
+    <t>FMemMark MemMark(FMemStack::Get());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FEngineLoop::Tick()</t>
+  </si>
+  <si>
+    <t>// make sure to catch any FMemStack uses outside of UWorld::Tick</t>
+  </si>
+  <si>
+    <t>FMemMark MemStackMark(FMemStack::Get());</t>
+  </si>
+  <si>
+    <t>RenderThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载了new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，没有重载delete，因为这类对象不允许delete，要么不需要管理释放通过FMemMark对象自动释放，要么手动掉FreeChunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemManager.Alloc(AllocSize, Alignment);</t>
+  </si>
+  <si>
+    <t>MemManager.Flush();</t>
+  </si>
+  <si>
+    <t>new的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FChildOrderInvalidationData, TMemStackAllocator&lt;&gt;&gt; RebuildWigetData;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过TMemStackAllocator分配的用法，这部分无需手动回收，需要借助FMemMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动申请和手动释放(或析构中释放）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMemStackBase MemManager</t>
+  </si>
+  <si>
+    <t>MemStack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要考虑释放，全部在堆上分配好一堆的chunk，每次从chunk上取（类似栈上的），好处就是效率高，不需要走频繁走底层内存分配（底层的分配都需要频繁加锁，多线程竞争影响效率）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！只有这种可以跨线程释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存分配和释放都在本线程内解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同于提前分配一大块内存，每次从这个上面取（避免频繁走底层malloc/free的导致锁竞争）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个可以在A线程分配，在B线程释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程绑定的memstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂对象内部的memstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于那些线程每次Tick内申请的内存，在该Tick结束后肯定不会用到的，则使用MemStack；线程安全，每次仅仅位置读写指针位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>return new(FMemStack::Get()) FDistortionMeshProcessor(Scene, InViewIfDynamicMeshCommand, DistortionPassState, InDrawListContext);</t>
-  </si>
-  <si>
-    <t>// Friends.</t>
-  </si>
-  <si>
-    <t>friend class FMemMark;</t>
-  </si>
-  <si>
-    <t>friend void* operator new(size_t Size, FMemStackBase&amp; Mem, int32 Count, int32 Align);</t>
-  </si>
-  <si>
-    <t>friend void* operator new(size_t Size, FMemStackBase&amp; Mem, EMemZeroed Tag, int32 Count, int32 Align);</t>
-  </si>
-  <si>
-    <t>friend void* operator new(size_t Size, FMemStackBase&amp; Mem, EMemOned Tag, int32 Count, int32 Align);</t>
-  </si>
-  <si>
-    <t>friend void* operator new[](size_t Size, FMemStackBase&amp; Mem, int32 Count, int32 Align);</t>
-  </si>
-  <si>
-    <t>friend void* operator new[](size_t Size, FMemStackBase&amp; Mem, EMemZeroed Tag, int32 Count, int32 Align);</t>
-  </si>
-  <si>
-    <t>friend void* operator new[](size_t Size, FMemStackBase&amp; Mem, EMemOned Tag, int32 Count, int32 Align);</t>
-  </si>
-  <si>
-    <t>原理就是每个线程自己一个，内部每次分配一大块，每次从这个里面取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神奇用法：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用线程局部存储，可以每一个线程一个专属的memstack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于GameThread和RenderThread来说，有几种骚操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次TICK开始前获取一下当前线程的MemStack，构造一个栈上的FMemMark对象，之后这个线程大量的分配都是在线程局部存储的MemStack上（并且不需要手动free），会在FMemMark析构里面全部释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部个别模块或函数中，也可以构造一个FMemMark对象，确保在该模块或函数结束时，释放掉这个生命周期内在MemStack分配的内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同样，有些时候会直接重新构造一个MemStack，在对象析构时销毁内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于Unnamed Thread，其没有在每个Thread-Tick开始构造类似FMemMark对象，所以理论上需要自己管理内存，如果内部使用了MemStack，没有手动释放之类就会泄露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FSlateRHIRenderer::DrawWindow_RenderThread(FRHICommandListImmediate&amp; RHICmdList, FViewportInfo&amp; ViewportInfo, FSlateWindowElementList&amp; WindowElementList, const struct FSlateDrawWindowCommandParams&amp; DrawCommandParams)</t>
-  </si>
-  <si>
-    <t>void UAnimInstance::ParallelEvaluateAnimation(bool bForceRefPose, const USkeletalMesh* InSkeletalMesh, FParallelEvaluationData&amp; OutEvaluationData)</t>
-  </si>
-  <si>
-    <t>FMemMark Mark(FMemStack::Get());</t>
-  </si>
-  <si>
-    <t>class RHI_API FRHICommandListBase : public FNoncopyable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMemStackBase MemManager; </t>
-  </si>
-  <si>
-    <t>FMemMark MemMark(FMemStack::Get());</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FEngineLoop::Tick()</t>
-  </si>
-  <si>
-    <t>// make sure to catch any FMemStack uses outside of UWorld::Tick</t>
-  </si>
-  <si>
-    <t>FMemMark MemStackMark(FMemStack::Get());</t>
-  </si>
-  <si>
-    <t>RenderThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重载了new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！注意，没有重载delete，因为这类对象不允许delete，要么不需要管理释放通过FMemMark对象自动释放，要么手动掉FreeChunk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemManager.Alloc(AllocSize, Alignment);</t>
-  </si>
-  <si>
-    <t>MemManager.Flush();</t>
-  </si>
-  <si>
-    <t>new的用法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TArray&lt;FChildOrderInvalidationData, TMemStackAllocator&lt;&gt;&gt; RebuildWigetData;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过TMemStackAllocator分配的用法，这部分无需手动回收，需要借助FMemMark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动申请和手动释放(或析构中释放）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMemStackBase MemManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMemStack::Get()</t>
+  </si>
+  <si>
+    <t>使用线程局部存储，每个线程一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,183 +548,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F34"/>
+  <dimension ref="B3:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1.2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>2.1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15">
+        <v>2.1</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13">
-        <v>2.1</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="E16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="F17" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="E19" t="s">
-        <v>31</v>
+      <c r="F19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="F21" t="s">
-        <v>28</v>
+      <c r="E21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
-      <c r="F22" t="s">
-        <v>29</v>
+      <c r="E22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="C24">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
+      <c r="F24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="D25" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="E26" t="s">
-        <v>22</v>
+      <c r="C26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="F27" t="s">
-        <v>23</v>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
+      <c r="F29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="D30" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="E31" t="s">
-        <v>24</v>
+      <c r="C31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
-        <v>19</v>
+      <c r="C36" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -704,118 +779,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED23DB90-63EA-40C4-B868-11C7C3BA440E}">
-  <dimension ref="B4:C23"/>
+  <dimension ref="B4:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -826,14 +904,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4369A59-98E5-4941-959C-CAABF42553CF}">
-  <dimension ref="A1"/>
+  <dimension ref="B5:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/ue_memstack.xlsx
+++ b/doc/ue_memstack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D651565-4CF0-4295-A957-DA42D0D3A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E98B17-1A97-45BA-868E-C530622B1BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>用法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,37 @@
   </si>
   <si>
     <t>使用线程局部存储，每个线程一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template&lt;typename FunctionType&gt;</t>
+  </si>
+  <si>
+    <t>class TParallelForTask</t>
+  </si>
+  <si>
+    <t>void DoTask(ENamedThreads::Type CurrentThread, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if (Data-&gt;Process(TasksToSpawn, Data, DesiredThread, false))</t>
+  </si>
+  <si>
+    <t>checkSlow(!Data-&gt;bTriggered);</t>
+  </si>
+  <si>
+    <t>Data-&gt;bTriggered = true;</t>
+  </si>
+  <si>
+    <t>Data-&gt;Event-&gt;Trigger();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Process里面分配的在函数结束后就回收了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F36"/>
+  <dimension ref="B3:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,27 +778,90 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="E33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="F34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4369A59-98E5-4941-959C-CAABF42553CF}">
   <dimension ref="B5:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
